--- a/scripts/correlation/metric_df/ConA_metrics.xlsx
+++ b/scripts/correlation/metric_df/ConA_metrics.xlsx
@@ -507,16 +507,16 @@
         <v>1.402225194</v>
       </c>
       <c r="C3" t="n">
-        <v>2.362150809882157</v>
+        <v>2.13995484879161</v>
       </c>
       <c r="D3" t="n">
-        <v>2.362150809882157</v>
+        <v>2.533880019485858</v>
       </c>
       <c r="E3" t="n">
-        <v>2.362150809882157</v>
+        <v>4.27990969758322</v>
       </c>
       <c r="F3" t="n">
-        <v>31.73050949999998</v>
+        <v>43.20789840000001</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -561,16 +561,16 @@
         <v>0.522064956</v>
       </c>
       <c r="C5" t="n">
-        <v>2.322704237663419</v>
+        <v>2.159697749001741</v>
       </c>
       <c r="D5" t="n">
-        <v>2.322704237663419</v>
+        <v>3.216614678357667</v>
       </c>
       <c r="E5" t="n">
-        <v>2.322704237663419</v>
+        <v>4.319395498003481</v>
       </c>
       <c r="F5" t="n">
-        <v>15.44528763790287</v>
+        <v>12.40238822784389</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>2.574100259</v>
       </c>
       <c r="C6" t="n">
-        <v>2.221976120168166</v>
+        <v>1.992732513190012</v>
       </c>
       <c r="D6" t="n">
         <v>2.221976120168166</v>
       </c>
       <c r="E6" t="n">
-        <v>2.221976120168166</v>
+        <v>3.985465026380025</v>
       </c>
       <c r="F6" t="n">
-        <v>26.96800176232378</v>
+        <v>20.82336763823618</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -669,16 +669,16 @@
         <v>-0.024312424</v>
       </c>
       <c r="C9" t="n">
-        <v>2.641200834268413</v>
+        <v>2.549597692883073</v>
       </c>
       <c r="D9" t="n">
         <v>2.641200834268413</v>
       </c>
       <c r="E9" t="n">
-        <v>2.641200834268413</v>
+        <v>5.099195385766146</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4520797999999994</v>
+        <v>0.5186200250000004</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -696,16 +696,16 @@
         <v>1.163264466</v>
       </c>
       <c r="C10" t="n">
-        <v>2.246280086812787</v>
+        <v>1.935589954427057</v>
       </c>
       <c r="D10" t="n">
         <v>2.251887232513918</v>
       </c>
       <c r="E10" t="n">
-        <v>4.492560173625574</v>
+        <v>5.806769863281172</v>
       </c>
       <c r="F10" t="n">
-        <v>34.81684041666666</v>
+        <v>32.94537257407407</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -723,16 +723,16 @@
         <v>0.467786817</v>
       </c>
       <c r="C11" t="n">
-        <v>2.17207188645103</v>
+        <v>2.14341020415078</v>
       </c>
       <c r="D11" t="n">
         <v>2.488910808023066</v>
       </c>
       <c r="E11" t="n">
-        <v>4.34414377290206</v>
+        <v>6.430230612452339</v>
       </c>
       <c r="F11" t="n">
-        <v>26.288630425</v>
+        <v>28.43684886666667</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -750,16 +750,16 @@
         <v>0.629548573</v>
       </c>
       <c r="C12" t="n">
-        <v>2.237668011609374</v>
+        <v>2.447230052609561</v>
       </c>
       <c r="D12" t="n">
         <v>2.568130278967355</v>
       </c>
       <c r="E12" t="n">
-        <v>4.475336023218747</v>
+        <v>7.341690157828683</v>
       </c>
       <c r="F12" t="n">
-        <v>21.89241412525415</v>
+        <v>21.07795052716951</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -777,16 +777,16 @@
         <v>1.101648051</v>
       </c>
       <c r="C13" t="n">
-        <v>2.4354417740728</v>
+        <v>2.3839475508278</v>
       </c>
       <c r="D13" t="n">
         <v>2.456060678658576</v>
       </c>
       <c r="E13" t="n">
-        <v>4.870883548145601</v>
+        <v>7.151842652483401</v>
       </c>
       <c r="F13" t="n">
-        <v>18.58642242857143</v>
+        <v>18.41646640952381</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -804,16 +804,16 @@
         <v>2.717125527</v>
       </c>
       <c r="C14" t="n">
-        <v>1.852278945622885</v>
+        <v>2.492866163715956</v>
       </c>
       <c r="D14" t="n">
         <v>2.575386834662778</v>
       </c>
       <c r="E14" t="n">
-        <v>3.704557891245769</v>
+        <v>7.478598491147868</v>
       </c>
       <c r="F14" t="n">
-        <v>9.010941437000849</v>
+        <v>14.78204334242948</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -831,16 +831,16 @@
         <v>2.172021103</v>
       </c>
       <c r="C15" t="n">
-        <v>2.55842517123879</v>
+        <v>2.66305373505464</v>
       </c>
       <c r="D15" t="n">
-        <v>2.55842517123879</v>
+        <v>2.76768229887049</v>
       </c>
       <c r="E15" t="n">
-        <v>2.55842517123879</v>
+        <v>5.32610747010928</v>
       </c>
       <c r="F15" t="n">
-        <v>8.81324678</v>
+        <v>9.067969089999998</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
         <v>2.410158863</v>
       </c>
       <c r="C16" t="n">
-        <v>1.834390169190214</v>
+        <v>1.956884726075177</v>
       </c>
       <c r="D16" t="n">
-        <v>1.834390169190214</v>
+        <v>2.079379282960139</v>
       </c>
       <c r="E16" t="n">
-        <v>1.834390169190214</v>
+        <v>3.913769452150354</v>
       </c>
       <c r="F16" t="n">
-        <v>13.46306764676468</v>
+        <v>12.52359855485548</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -966,16 +966,16 @@
         <v>-0.85548294</v>
       </c>
       <c r="C20" t="n">
-        <v>2.194841207881662</v>
+        <v>1.95073299342909</v>
       </c>
       <c r="D20" t="n">
-        <v>2.194841207881662</v>
+        <v>2.335448274444515</v>
       </c>
       <c r="E20" t="n">
-        <v>2.194841207881662</v>
+        <v>3.901465986858181</v>
       </c>
       <c r="F20" t="n">
-        <v>24.09254147914791</v>
+        <v>22.67939212671265</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1047,16 +1047,16 @@
         <v>-0.656737208</v>
       </c>
       <c r="C23" t="n">
-        <v>2.47486570032587</v>
+        <v>2.048201160128496</v>
       </c>
       <c r="D23" t="n">
-        <v>2.47486570032587</v>
+        <v>2.328569345216523</v>
       </c>
       <c r="E23" t="n">
-        <v>2.47486570032587</v>
+        <v>4.096402320256992</v>
       </c>
       <c r="F23" t="n">
-        <v>21.96318225</v>
+        <v>23.973651075</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/ConA_metrics.xlsx
+++ b/scripts/correlation/metric_df/ConA_metrics.xlsx
@@ -507,16 +507,16 @@
         <v>1.402225194</v>
       </c>
       <c r="C3" t="n">
-        <v>2.13995484879161</v>
+        <v>2.32970709169528</v>
       </c>
       <c r="D3" t="n">
-        <v>2.533880019485858</v>
+        <v>2.362150809882157</v>
       </c>
       <c r="E3" t="n">
-        <v>4.27990969758322</v>
+        <v>4.65941418339056</v>
       </c>
       <c r="F3" t="n">
-        <v>43.20789840000001</v>
+        <v>36.32248346666666</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -534,16 +534,16 @@
         <v>0.422966904</v>
       </c>
       <c r="C4" t="n">
-        <v>2.194102435541124</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.194102435541124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.194102435541124</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2031716828317185</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -561,16 +561,16 @@
         <v>0.522064956</v>
       </c>
       <c r="C5" t="n">
-        <v>2.159697749001741</v>
+        <v>2.538044235441332</v>
       </c>
       <c r="D5" t="n">
-        <v>3.216614678357667</v>
+        <v>2.753384233219247</v>
       </c>
       <c r="E5" t="n">
-        <v>4.319395498003481</v>
+        <v>5.076088470882665</v>
       </c>
       <c r="F5" t="n">
-        <v>12.40238822784389</v>
+        <v>17.71865670099656</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>2.574100259</v>
       </c>
       <c r="C6" t="n">
-        <v>1.992732513190012</v>
+        <v>2.251101901585213</v>
       </c>
       <c r="D6" t="n">
-        <v>2.221976120168166</v>
+        <v>2.280227683002259</v>
       </c>
       <c r="E6" t="n">
-        <v>3.985465026380025</v>
+        <v>4.502203803170425</v>
       </c>
       <c r="F6" t="n">
-        <v>20.82336763823618</v>
+        <v>28.38755239476053</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -669,16 +669,16 @@
         <v>-0.024312424</v>
       </c>
       <c r="C9" t="n">
-        <v>2.549597692883073</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.641200834268413</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.099195385766146</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5186200250000004</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -696,16 +696,16 @@
         <v>1.163264466</v>
       </c>
       <c r="C10" t="n">
-        <v>1.935589954427057</v>
+        <v>2.112871867249531</v>
       </c>
       <c r="D10" t="n">
         <v>2.251887232513918</v>
       </c>
       <c r="E10" t="n">
-        <v>5.806769863281172</v>
+        <v>6.338615601748595</v>
       </c>
       <c r="F10" t="n">
-        <v>32.94537257407407</v>
+        <v>36.61157629259259</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -723,16 +723,16 @@
         <v>0.467786817</v>
       </c>
       <c r="C11" t="n">
-        <v>2.14341020415078</v>
+        <v>1.796630703497981</v>
       </c>
       <c r="D11" t="n">
         <v>2.488910808023066</v>
       </c>
       <c r="E11" t="n">
-        <v>6.430230612452339</v>
+        <v>5.389892110493943</v>
       </c>
       <c r="F11" t="n">
-        <v>28.43684886666667</v>
+        <v>22.1409776</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -750,16 +750,16 @@
         <v>0.629548573</v>
       </c>
       <c r="C12" t="n">
-        <v>2.447230052609561</v>
+        <v>2.322171506183922</v>
       </c>
       <c r="D12" t="n">
         <v>2.568130278967355</v>
       </c>
       <c r="E12" t="n">
-        <v>7.341690157828683</v>
+        <v>6.966514518551766</v>
       </c>
       <c r="F12" t="n">
-        <v>21.07795052716951</v>
+        <v>21.49780495283805</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -777,16 +777,16 @@
         <v>1.101648051</v>
       </c>
       <c r="C13" t="n">
-        <v>2.3839475508278</v>
+        <v>1.992505722562876</v>
       </c>
       <c r="D13" t="n">
         <v>2.456060678658576</v>
       </c>
       <c r="E13" t="n">
-        <v>7.151842652483401</v>
+        <v>5.977517167688626</v>
       </c>
       <c r="F13" t="n">
-        <v>18.41646640952381</v>
+        <v>14.67050163809524</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -804,16 +804,16 @@
         <v>2.717125527</v>
       </c>
       <c r="C14" t="n">
-        <v>2.492866163715956</v>
+        <v>2.033444712706515</v>
       </c>
       <c r="D14" t="n">
         <v>2.575386834662778</v>
       </c>
       <c r="E14" t="n">
-        <v>7.478598491147868</v>
+        <v>6.100334138119544</v>
       </c>
       <c r="F14" t="n">
-        <v>14.78204334242948</v>
+        <v>11.40148595335724</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
         <v>2.410158863</v>
       </c>
       <c r="C16" t="n">
-        <v>1.956884726075177</v>
+        <v>2.178734517635327</v>
       </c>
       <c r="D16" t="n">
-        <v>2.079379282960139</v>
+        <v>2.52307886608044</v>
       </c>
       <c r="E16" t="n">
-        <v>3.913769452150354</v>
+        <v>4.357469035270655</v>
       </c>
       <c r="F16" t="n">
-        <v>12.52359855485548</v>
+        <v>13.20931942194219</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -885,16 +885,16 @@
         <v>-1.86317914</v>
       </c>
       <c r="C17" t="n">
-        <v>2.59375597178801</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.59375597178801</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.59375597178801</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9676340666666668</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -966,16 +966,16 @@
         <v>-0.85548294</v>
       </c>
       <c r="C20" t="n">
-        <v>1.95073299342909</v>
+        <v>2.305367038233467</v>
       </c>
       <c r="D20" t="n">
-        <v>2.335448274444515</v>
+        <v>2.415892868585273</v>
       </c>
       <c r="E20" t="n">
-        <v>3.901465986858181</v>
+        <v>4.610734076466935</v>
       </c>
       <c r="F20" t="n">
-        <v>22.67939212671265</v>
+        <v>24.69926272627262</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1047,16 +1047,16 @@
         <v>-0.656737208</v>
       </c>
       <c r="C23" t="n">
-        <v>2.048201160128496</v>
+        <v>2.510073352700914</v>
       </c>
       <c r="D23" t="n">
-        <v>2.328569345216523</v>
+        <v>2.545281005075958</v>
       </c>
       <c r="E23" t="n">
-        <v>4.096402320256992</v>
+        <v>5.020146705401829</v>
       </c>
       <c r="F23" t="n">
-        <v>23.973651075</v>
+        <v>29.556290425</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/ConA_metrics.xlsx
+++ b/scripts/correlation/metric_df/ConA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,50 +473,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Gal(b1-4)GlcNAc(b1-2)Man</t>
+          <t>Glc(a1-3)Glc(a1-3)Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2597174405</v>
+        <v>1.402225194</v>
       </c>
       <c r="C2" t="n">
-        <v>2.270020357476009</v>
+        <v>2.32970709169528</v>
       </c>
       <c r="D2" t="n">
-        <v>2.270020357476009</v>
+        <v>2.362150809882157</v>
       </c>
       <c r="E2" t="n">
-        <v>2.270020357476009</v>
+        <v>4.65941418339056</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6356174239718919</v>
+        <v>36.32248346666666</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Glc(a1-3)Glc(a1-3)Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.402225194</v>
+        <v>0.522064956</v>
       </c>
       <c r="C3" t="n">
-        <v>2.32970709169528</v>
+        <v>2.538044235441332</v>
       </c>
       <c r="D3" t="n">
-        <v>2.362150809882157</v>
+        <v>2.753384233219247</v>
       </c>
       <c r="E3" t="n">
-        <v>4.65941418339056</v>
+        <v>5.076088470882665</v>
       </c>
       <c r="F3" t="n">
-        <v>36.32248346666666</v>
+        <v>17.71865670099656</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -527,50 +527,50 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.422966904</v>
+        <v>2.574100259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.251101901585213</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.280227683002259</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.502203803170425</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>28.38755239476053</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.522064956</v>
+        <v>2.574100259</v>
       </c>
       <c r="C5" t="n">
-        <v>2.538044235441332</v>
+        <v>2.651420443376771</v>
       </c>
       <c r="D5" t="n">
-        <v>2.753384233219247</v>
+        <v>2.651420443376771</v>
       </c>
       <c r="E5" t="n">
-        <v>5.076088470882665</v>
+        <v>2.651420443376771</v>
       </c>
       <c r="F5" t="n">
-        <v>17.71865670099656</v>
+        <v>6.541647233333337</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -581,50 +581,50 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Man(a1-2)Man</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.574100259</v>
+        <v>-0.024312424</v>
       </c>
       <c r="C6" t="n">
-        <v>2.251101901585213</v>
+        <v>2.549597692883073</v>
       </c>
       <c r="D6" t="n">
-        <v>2.280227683002259</v>
+        <v>2.641200834268413</v>
       </c>
       <c r="E6" t="n">
-        <v>4.502203803170425</v>
+        <v>5.099195385766146</v>
       </c>
       <c r="F6" t="n">
-        <v>28.38755239476053</v>
+        <v>0.5186200250000004</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.574100259</v>
+        <v>1.163264466</v>
       </c>
       <c r="C7" t="n">
-        <v>2.651420443376771</v>
+        <v>2.112871867249531</v>
       </c>
       <c r="D7" t="n">
-        <v>2.651420443376771</v>
+        <v>2.251887232513918</v>
       </c>
       <c r="E7" t="n">
-        <v>2.651420443376771</v>
+        <v>6.338615601748595</v>
       </c>
       <c r="F7" t="n">
-        <v>6.541647233333337</v>
+        <v>36.61157629259259</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -635,77 +635,77 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GlcNAc(b1-2)[GlcNAc(b1-6)]Man</t>
+          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.595433385</v>
+        <v>0.467786817</v>
       </c>
       <c r="C8" t="n">
-        <v>1.646802576033724</v>
+        <v>2.281249567420965</v>
       </c>
       <c r="D8" t="n">
-        <v>1.646802576033724</v>
+        <v>2.488910808023066</v>
       </c>
       <c r="E8" t="n">
-        <v>1.646802576033724</v>
+        <v>6.843748702262895</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4741440000000016</v>
+        <v>29.77618295</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man</t>
+          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.024312424</v>
+        <v>0.629548573</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.447230052609561</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.568130278967355</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>7.341690157828683</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>21.07795052716951</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.163264466</v>
+        <v>1.101648051</v>
       </c>
       <c r="C10" t="n">
-        <v>2.112871867249531</v>
+        <v>2.3839475508278</v>
       </c>
       <c r="D10" t="n">
-        <v>2.251887232513918</v>
+        <v>2.456060678658576</v>
       </c>
       <c r="E10" t="n">
-        <v>6.338615601748595</v>
+        <v>7.151842652483401</v>
       </c>
       <c r="F10" t="n">
-        <v>36.61157629259259</v>
+        <v>18.41646640952381</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -716,23 +716,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.467786817</v>
+        <v>2.717125527</v>
       </c>
       <c r="C11" t="n">
-        <v>1.796630703497981</v>
+        <v>2.492866163715956</v>
       </c>
       <c r="D11" t="n">
-        <v>2.488910808023066</v>
+        <v>2.575386834662778</v>
       </c>
       <c r="E11" t="n">
-        <v>5.389892110493943</v>
+        <v>7.478598491147868</v>
       </c>
       <c r="F11" t="n">
-        <v>22.1409776</v>
+        <v>14.78204334242948</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -743,23 +743,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.629548573</v>
+        <v>2.172021103</v>
       </c>
       <c r="C12" t="n">
-        <v>2.322171506183922</v>
+        <v>2.66305373505464</v>
       </c>
       <c r="D12" t="n">
-        <v>2.568130278967355</v>
+        <v>2.76768229887049</v>
       </c>
       <c r="E12" t="n">
-        <v>6.966514518551766</v>
+        <v>5.32610747010928</v>
       </c>
       <c r="F12" t="n">
-        <v>21.49780495283805</v>
+        <v>9.067969089999998</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -770,23 +770,23 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.101648051</v>
+        <v>2.410158863</v>
       </c>
       <c r="C13" t="n">
-        <v>1.992505722562876</v>
+        <v>2.526816293663657</v>
       </c>
       <c r="D13" t="n">
-        <v>2.456060678658576</v>
+        <v>2.530553721246874</v>
       </c>
       <c r="E13" t="n">
-        <v>5.977517167688626</v>
+        <v>5.053632587327314</v>
       </c>
       <c r="F13" t="n">
-        <v>14.67050163809524</v>
+        <v>14.98934220422042</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -797,23 +797,23 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.717125527</v>
+        <v>-0.85548294</v>
       </c>
       <c r="C14" t="n">
-        <v>2.033444712706515</v>
+        <v>2.305367038233467</v>
       </c>
       <c r="D14" t="n">
-        <v>2.575386834662778</v>
+        <v>2.415892868585273</v>
       </c>
       <c r="E14" t="n">
-        <v>6.100334138119544</v>
+        <v>4.610734076466935</v>
       </c>
       <c r="F14" t="n">
-        <v>11.40148595335724</v>
+        <v>24.69926272627262</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -824,241 +824,25 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.172021103</v>
+        <v>-0.656737208</v>
       </c>
       <c r="C15" t="n">
-        <v>2.66305373505464</v>
+        <v>2.510073352700914</v>
       </c>
       <c r="D15" t="n">
-        <v>2.76768229887049</v>
+        <v>2.545281005075958</v>
       </c>
       <c r="E15" t="n">
-        <v>5.32610747010928</v>
+        <v>5.020146705401829</v>
       </c>
       <c r="F15" t="n">
-        <v>9.067969089999998</v>
+        <v>29.556290425</v>
       </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.410158863</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.178734517635327</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.52307886608044</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.357469035270655</v>
-      </c>
-      <c r="F16" t="n">
-        <v>13.20931942194219</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.86317914</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)GlcNAc(b1-2)Man</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.258585552</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.290956858736789</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.290956858736789</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.290956858736789</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.893006250000002</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.280721686</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.226730866789433</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.226730866789433</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.226730866789433</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.445539566666667</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.85548294</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.305367038233467</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.415892868585273</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.610734076466935</v>
-      </c>
-      <c r="F20" t="n">
-        <v>24.69926272627262</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.309804033</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.341979026821558</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.341979026821558</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2.341979026821558</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.12264366666667</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.315819525</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.286062864593102</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.286062864593102</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.286062864593102</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.985546779999999</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.656737208</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.510073352700914</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2.545281005075958</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5.020146705401829</v>
-      </c>
-      <c r="F23" t="n">
-        <v>29.556290425</v>
-      </c>
-      <c r="G23" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/scripts/correlation/metric_df/ConA_metrics.xlsx
+++ b/scripts/correlation/metric_df/ConA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted</t>
+          <t>SASA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_max</t>
+          <t>flexibility</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_sum</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>weighted_mean_flexibility</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conformation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -477,21 +492,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.402225194</v>
+        <v>1.402225193524648</v>
       </c>
       <c r="C2" t="n">
         <v>2.32970709169528</v>
       </c>
       <c r="D2" t="n">
-        <v>2.362150809882157</v>
+        <v>36.49695000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>4.65941418339056</v>
+        <v>0.453</v>
       </c>
       <c r="F2" t="n">
-        <v>36.32248346666666</v>
+        <v>3.8</v>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -504,21 +534,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.522064956</v>
+        <v>0.5220649560298752</v>
       </c>
       <c r="C3" t="n">
         <v>2.538044235441332</v>
       </c>
       <c r="D3" t="n">
-        <v>2.753384233219247</v>
+        <v>18.73797620237976</v>
       </c>
       <c r="E3" t="n">
-        <v>5.076088470882665</v>
+        <v>0.4340000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>17.71865670099656</v>
+        <v>9.675000000000001</v>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -531,21 +576,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.574100259</v>
+        <v>2.574100258519369</v>
       </c>
       <c r="C4" t="n">
         <v>2.251101901585213</v>
       </c>
       <c r="D4" t="n">
-        <v>2.280227683002259</v>
+        <v>28.4725902409759</v>
       </c>
       <c r="E4" t="n">
-        <v>4.502203803170425</v>
+        <v>0.4325</v>
       </c>
       <c r="F4" t="n">
-        <v>28.38755239476053</v>
+        <v>1.61</v>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -558,21 +618,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.574100259</v>
+        <v>2.574100258519369</v>
       </c>
       <c r="C5" t="n">
         <v>2.651420443376771</v>
       </c>
       <c r="D5" t="n">
-        <v>2.651420443376771</v>
+        <v>6.080800000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>2.651420443376771</v>
+        <v>0.499</v>
       </c>
       <c r="F5" t="n">
-        <v>6.541647233333337</v>
+        <v>4.77</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -581,79 +656,124 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man</t>
+          <t>GlcNAc(b1-2)Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.024312424</v>
+        <v>2.519057711988755</v>
       </c>
       <c r="C6" t="n">
-        <v>2.549597692883073</v>
+        <v>2.351384937873273</v>
       </c>
       <c r="D6" t="n">
-        <v>2.641200834268413</v>
+        <v>10.52366666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>5.099195385766146</v>
+        <v>0.42</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5186200250000004</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.163264466</v>
+        <v>-0.0243124240517866</v>
       </c>
       <c r="C7" t="n">
-        <v>2.112871867249531</v>
+        <v>2.679408235125698</v>
       </c>
       <c r="D7" t="n">
-        <v>2.251887232513918</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>6.338615601748595</v>
+        <v>0.431</v>
       </c>
       <c r="F7" t="n">
-        <v>36.61157629259259</v>
+        <v>0.43</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['4C1']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.467786817</v>
+        <v>1.163264465798812</v>
       </c>
       <c r="C8" t="n">
-        <v>2.281249567420965</v>
+        <v>2.112871867249531</v>
       </c>
       <c r="D8" t="n">
-        <v>2.488910808023066</v>
+        <v>36.56924074074075</v>
       </c>
       <c r="E8" t="n">
-        <v>6.843748702262895</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>29.77618295</v>
+        <v>6.386666666666667</v>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -662,25 +782,40 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.629548573</v>
+        <v>0.4677868172746248</v>
       </c>
       <c r="C9" t="n">
-        <v>2.447230052609561</v>
+        <v>2.281249567420965</v>
       </c>
       <c r="D9" t="n">
-        <v>2.568130278967355</v>
+        <v>30.00621666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>7.341690157828683</v>
+        <v>0.4463333333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>21.07795052716951</v>
+        <v>7.973333333333334</v>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -689,25 +824,40 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)[Man(a1-3)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.101648051</v>
+        <v>1.139507609998859</v>
       </c>
       <c r="C10" t="n">
-        <v>2.3839475508278</v>
+        <v>2.412668958230134</v>
       </c>
       <c r="D10" t="n">
-        <v>2.456060678658576</v>
+        <v>30.82761111111111</v>
       </c>
       <c r="E10" t="n">
-        <v>7.151842652483401</v>
+        <v>0.4456666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>18.41646640952381</v>
+        <v>4.48</v>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -716,25 +866,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.717125527</v>
+        <v>0.6295485727451957</v>
       </c>
       <c r="C11" t="n">
-        <v>2.492866163715956</v>
+        <v>2.447230052609561</v>
       </c>
       <c r="D11" t="n">
-        <v>2.575386834662778</v>
+        <v>21.58610805586108</v>
       </c>
       <c r="E11" t="n">
-        <v>7.478598491147868</v>
+        <v>0.411</v>
       </c>
       <c r="F11" t="n">
-        <v>14.78204334242948</v>
+        <v>10.46666666666667</v>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -743,25 +908,40 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-3)[Man(a1-2)Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.172021103</v>
+        <v>2.013916765492167</v>
       </c>
       <c r="C12" t="n">
-        <v>2.66305373505464</v>
+        <v>2.196976086347989</v>
       </c>
       <c r="D12" t="n">
-        <v>2.76768229887049</v>
+        <v>28.66427357264273</v>
       </c>
       <c r="E12" t="n">
-        <v>5.32610747010928</v>
+        <v>0.431</v>
       </c>
       <c r="F12" t="n">
-        <v>9.067969089999998</v>
+        <v>6.920000000000001</v>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-2)', 'Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -770,25 +950,40 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+          <t>Man(a1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.410158863</v>
+        <v>1.10164805091095</v>
       </c>
       <c r="C13" t="n">
-        <v>2.526816293663657</v>
+        <v>2.3839475508278</v>
       </c>
       <c r="D13" t="n">
-        <v>2.530553721246874</v>
+        <v>18.39985714285714</v>
       </c>
       <c r="E13" t="n">
-        <v>5.053632587327314</v>
+        <v>0.4613333333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>14.98934220422042</v>
+        <v>6.223333333333333</v>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -797,25 +992,40 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.85548294</v>
+        <v>2.932098767658457</v>
       </c>
       <c r="C14" t="n">
-        <v>2.305367038233467</v>
+        <v>2.230768577129615</v>
       </c>
       <c r="D14" t="n">
-        <v>2.415892868585273</v>
+        <v>26.47798333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>4.610734076466935</v>
+        <v>0.439</v>
       </c>
       <c r="F14" t="n">
-        <v>24.69926272627262</v>
+        <v>3.8</v>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-6)', 'Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -824,25 +1034,418 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>Man(a1-2)Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.649649503977535</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.209281997836556</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21.11569728401411</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4693333333333333</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Man(a1-2)Man(a1-6)[Man(a1-3)]Man(a1-6)[Man(a1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.709225174577657</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.439672642021487</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22.38225</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4283333333333334</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Man(a1-2)', 'Man(a1-3)', 'Man(a1-2)']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Man(a1-3)[Man(a1-6)]Man(a1-6)[Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.71712552692838</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.492866163715956</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.98801784940399</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.350000000000001</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)', 'Man(a1-3)']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.172021102781769</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.66305373505464</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.62791</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.379999999999999</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.410158863157489</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.526816293663657</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15.02763776377638</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4535</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.755</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Man(a1-3)[Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.038811076561362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.612142753164796</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8.1526</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.8554829404280622</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.305367038233467</v>
+      </c>
+      <c r="D21" t="n">
+        <v>24.73031053105311</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
           <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-0.656737208</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B22" t="n">
+        <v>-0.65673720780052</v>
+      </c>
+      <c r="C22" t="n">
         <v>2.510073352700914</v>
       </c>
-      <c r="D15" t="n">
-        <v>2.545281005075958</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.020146705401829</v>
-      </c>
-      <c r="F15" t="n">
-        <v>29.556290425</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="D22" t="n">
+        <v>29.494275</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.3841794769851979</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.293722998174635</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.19009349065094</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4455</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.405</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Xyl(b1-2)[Man(a1-3)][Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-3)][Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.5407862533563521</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.311199434060129</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.27265453090618</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Man(a1-3)', 'Man(a1-6)']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['Man(a1-?)']</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
